--- a/biology/Zoologie/Acanthoceras/Acanthoceras.xlsx
+++ b/biology/Zoologie/Acanthoceras/Acanthoceras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthoceras est un genre fossile d'ammonites, céphalopodes disparus de la sous-classe des Ammonoidea. Ce genre appartient au sous-ordre des Ammonitina et à la famille des Acanthoceratidae. Ses membres vivaient au Crétacé, de l'Albien au Turonien, et étaient particulièrement bien représentés au Cénomanien. Il a été décrit par Alexandre Brongniart en 1822 puis par Melchior Neumayr en 1875[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthoceras est un genre fossile d'ammonites, céphalopodes disparus de la sous-classe des Ammonoidea. Ce genre appartient au sous-ordre des Ammonitina et à la famille des Acanthoceratidae. Ses membres vivaient au Crétacé, de l'Albien au Turonien, et étaient particulièrement bien représentés au Cénomanien. Il a été décrit par Alexandre Brongniart en 1822 puis par Melchior Neumayr en 1875.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces ammonites avaient des coquilles épaisses et très ornées.
 L'espèce type Acanthoceras rothomagense, par exemple, possède une coquille qui peut mesurer plus de 40 centimètres de diamètre. La ligne de suture persillée fait penser à la feuille d'acanthe, et il est possible d'observer la présence de tubercules siphonaux et d'autres ventro-latéraux. Il y des côtes sur la coquille, souvent longues et courtes en alternance.
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom a été formé par deux mots grecs Keras, signifiant corne, et Acantho venant de la ressemblance des lignes de suture de la coquille avec les feuilles d'acanthe.
 </t>
@@ -574,7 +590,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthoceras est une ammonite abondante dans la partie moyenne de l'étage Cénomanien (Crétacé Supérieur) en Europe, en Amérique du Nord et dans le nord de l'Australie.
 </t>
